--- a/data_sources/Dati Rete sardegna.xlsx
+++ b/data_sources/Dati Rete sardegna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEM2\.julia\dev\EU_grid_operations\data_sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ECB446-5A00-4C16-8B98-A6B8D4740A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0B10C-07CF-49FA-8007-F04F01014F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{D5C84947-842D-410D-B6AA-C07578654905}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D5C84947-842D-410D-B6AA-C07578654905}"/>
   </bookViews>
   <sheets>
     <sheet name="BUS_AC" sheetId="6" r:id="rId1"/>
@@ -7498,16 +7498,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1094</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6125</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>9.1060242000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6126</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>9.0094449999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6127</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>8.9176000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6128</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>8.6502999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6129</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>8.3809310000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6130</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>9.0977538065530652</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6131</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>8.5984999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6132</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>9.1149699999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6133</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>8.2929999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6134</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>9.2581290000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6135</v>
       </c>
@@ -7760,18 +7760,18 @@
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3605</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>40.847999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3606</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>40.652200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3607</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>39.393900000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3608</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>40.251100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3609</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>39.899500000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3610</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>39.202800000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3611</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>40.126399999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3612</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>40.237900000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3613</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>39.302700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3614</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>39.209299999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3615</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>41.247900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3616</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>39.960700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3617</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>39.394100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3618</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>39.469900000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3619</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>39.703000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3620</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>39.5015</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3621</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>39.397100000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3622</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>39.540100000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3623</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>40.712200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3624</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>40.7286</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3625</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>40.824100000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3626</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>40.299399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3627</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>40.323399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3628</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>40.552700000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3629</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>40.584099999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3630</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>40.885199999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3631</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>40.767400000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3632</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>41.070599999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3633</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>40.946399999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3634</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>41.197600000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3635</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>41.173999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3636</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>40.856699999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3637</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>40.914000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3638</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>39.960900000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3639</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>39.934199999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3640</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>39.783799999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3641</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>39.337400000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3642</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>39.265799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3643</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>39.232900000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3644</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>39.233199999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3645</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>39.2363</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3646</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>39.125100000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3647</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>39.101100000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3648</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>38.945300000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3649</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>39.113500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3650</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>39.0565</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3651</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>39.165700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3652</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>39.201000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3653</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>39.195900000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3654</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>39.261000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3655</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>39.735199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3656</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>39.861199999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3657</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>39.551000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3658</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>39.247300000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3659</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>39.478200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3660</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>39.297499999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3661</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>39.306899999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>3662</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>39.311700000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3663</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>40.615499999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3664</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>40.660200000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>3665</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>40.034500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>3666</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>40.295699999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3667</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>39.167999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>3668</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>40.6066</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>3669</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>40.600499999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>3670</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>40.577300000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3671</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>40.357300000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>3672</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>40.243899999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3673</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>40.481000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>3674</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>39.262599999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>3675</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>39.391599999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>3676</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>40.800800000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>3677</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>40.898000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>3678</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>39.206800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>3679</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>39.206400000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>3680</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>39.591000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>3681</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>39.316899999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>3682</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>40.053199999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>3683</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>39.936700000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>3684</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>39.591000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>3685</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>39.358800000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>3686</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>40.775500000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3687</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>39.445799999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>3688</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>40.852800000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>3689</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>40.776000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>3690</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>39.2303</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>3691</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>40.839100000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>3692</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>39.213700000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3693</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>40.838299999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3694</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>39.085999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3695</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>39.110799999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>3696</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>40.887799999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>3697</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>39.869999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3698</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>39.1937</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>3702</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>39.196300000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>3703</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>39.597999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>3704</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>39.084200000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3705</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>39.250399999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>3706</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>39.9619</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>3707</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>39.233499999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3708</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>39.087200000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>3709</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>41.068199999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3710</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>38.9651</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>3711</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>39.287700000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3712</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>39.295099999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>3721</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>40.652999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3726</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>40.915100000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>3727</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>41.067100000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>3728</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>38.955599999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>3752</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>39.233499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>3771</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>40.576799999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>3805</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>39.5565</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>3806</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>39.515900000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>3807</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>40.396999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>3808</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>40.134700000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>3809</v>
       </c>
@@ -10827,9 +10827,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>166</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>9.1060242000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>171</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>9.1060242000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>8.2929999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>9.0015420000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>178</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>9.0094449999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>181</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>9.0977538065530652</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>184</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>9.0977538065530652</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>186</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>9.0977538065530652</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>9.0015420000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>9.0094449999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>193</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>8.8362250000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>195</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>8.7813867999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>197</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>8.5817533000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>199</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>8.6468751000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>201</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>8.8312209999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>203</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>9.5027442000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>205</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>9.0010431000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>207</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>8.5610073999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>209</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>8.9839210000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>211</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>8.5278340000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>213</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>8.9152400000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>215</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>8.6623978000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>217</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>8.6331310000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>219</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>9.0147399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>221</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>8.7209530999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>223</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>8.8986359999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>225</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>9.158944</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>227</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>8.7367218999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>229</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>9.0445989000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>232</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>8.9752276000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>234</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>8.5341108999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>237</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>9.2298410000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>239</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>8.3809310000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>241</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>8.9231379999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>243</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>8.9718429999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>246</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>9.0015420000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>249</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>8.9718429999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>250</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>9.1880966999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>252</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>9.1788460000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>254</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>9.2035380999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>256</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>8.9542602000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>258</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>9.5270001000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>260</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>9.3840377999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>262</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>8.8362250000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>263</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>9.588832</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>265</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>9.507244</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>267</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>9.5410772000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>269</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>8.7813867999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>270</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>9.2804350000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>272</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>9.4030360000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>274</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>9.4411679999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>276</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>9.1828353000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>278</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>9.3697391999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>280</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>9.2193290000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>282</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>8.6562561999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>284</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>9.6922379999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>286</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>9.4990450000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>288</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>8.6571239999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>290</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>8.5402190000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>292</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>8.6372280000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>294</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>8.8579311999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>296</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>8.5916111999999991</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>298</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>8.8976310000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>300</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>8.5982240000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>302</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>8.6099732000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>304</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>8.6510379999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>306</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>8.5840920000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>308</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>8.6157229999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>310</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>8.5557200000000009</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>312</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>8.7621280000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>314</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>8.8267319999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>316</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>8.6361252999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>318</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>8.8211309999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>320</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>9.0652223000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>322</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>9.0574270000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>324</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>8.8842160000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>326</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>9.1645240000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>328</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>8.7299524000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>330</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>9.0299928000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>332</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>8.7681210000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>334</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>9.0430579000000009</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>336</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>9.2581290000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>338</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>9.1948191000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>340</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>8.8186180000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>342</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>8.6798160000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>344</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>8.9422189999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>346</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>8.6651159999999994</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>348</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>8.5683533999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>350</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>9.2040900000000008</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>352</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>9.1754470999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>354</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>8.8081169999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>356</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>9.0214630000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>358</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>9.1898289999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>360</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>8.7437159999999992</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>362</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>9.5027442000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>363</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>9.1010240000000007</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>365</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>9.0010431000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>366</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>9.520232</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>368</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>9.3820423999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>370</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>9.1129259999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>372</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>8.7418169999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>374</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>8.4031462000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>376</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>8.6602189999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>378</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>8.4611129999999992</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>380</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>8.5610073999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>381</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>8.8157160000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>383</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>8.5916589000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>385</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>9.3528269999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>387</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>9.1035158999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>389</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>8.7167139999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>391</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>8.9839210000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>392</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>8.4854120000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>394</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>8.8943625999999991</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>396</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>9.1012725999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>398</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>8.5278340000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>399</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>9.5010163999999993</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>401</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>8.6487339999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>403</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>9.1271532000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>405</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>9.3571439999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>407</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>8.9447390000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>409</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>9.1064571999999995</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>411</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>8.6356380000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>413</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>9.2858792000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>415</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>8.4717403999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>417</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>8.6623978000000008</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>418</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>9.045439</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>420</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>8.6331310000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>421</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>8.5341108999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>422</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>9.1297852000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>424</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>8.6305978000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>426</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>9.0448409999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>428</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>9.2298410000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>429</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>8.7209530999999991</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>430</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>8.9220349999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>432</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>8.6659380000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>434</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>8.3809310000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>435</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>8.9076369999999994</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>437</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>8.7919339999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>439</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>8.5219988999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>441</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>8.8986359999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>442</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>8.6463389999999993</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>444</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>8.4562962000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>446</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>8.8206340000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>448</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>8.9231379999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>449</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>9.1441389999999991</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>451</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>9.2935449999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>453</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>9.1890409999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>455</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>9.1321410000000007</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>457</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>8.7722420000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>459</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>8.5789603999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>461</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>8.7367218999999992</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>462</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>8.8690350000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>464</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>8.6700379999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>466</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>9.0015420000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>468</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>9.1128513000000009</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>470</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>8.9718429999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>471</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>8.9688409999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>473</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>9.0455781999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>475</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>9.2294459999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>477</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>9.1458562000000008</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>479</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>9.0016459999999991</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>481</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>9.1880966999999991</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>482</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>9.1788460000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>483</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>9.0094449999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>484</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>9.1675535000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>486</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>9.0929716999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>488</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>9.1851450000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>490</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>9.2035380999999994</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>491</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>8.9542602000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>492</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>8.9954839999999994</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>494</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>9.1965625000000006</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>496</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>9.5270001000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>497</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>9.0757340000000006</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>499</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>9.0879329999999996</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>501</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>9.1877569999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>503</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>9.6634048999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>505</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>9.1851848</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>507</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>8.8174738999999995</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>509</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>9.3840377999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>510</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>8.9611269999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>512</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>8.803725</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>514</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>8.8362250000000007</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>515</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>9.6247299000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>517</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>9.2282957000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>519</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>9.588832</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>520</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>8.8964269999999992</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>522</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>9.5313470000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>524</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>9.2519706999999993</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>526</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>9.1858369999999994</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>528</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>9.507244</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>529</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>9.6143225000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>531</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>9.1951339999999995</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>533</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>9.6619603000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>535</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>9.5489449999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>537</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>9.6301207000000009</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>539</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>9.5184449999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>541</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>9.5410772000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>542</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>8.9180375000000005</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>544</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>9.5822088000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>546</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>9.6111603999999993</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>548</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>9.5397953999999991</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>550</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>9.2182943000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>552</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>9.6637147999999993</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>554</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>9.4864350000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>556</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>8.7813867999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>557</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>9.2804350000000007</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>558</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>9.0723339999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
         <v>560</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>8.9207269999999994</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>562</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>9.3297339000000008</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>564</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>9.4030360000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>565</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>9.1784669999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>567</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>9.1483319999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>569</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>9.4411679999999993</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>570</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>9.6513390000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>572</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>9.1703320000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
         <v>574</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>9.1828353000000007</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>575</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>9.3549360000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
         <v>577</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>9.6950140999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
         <v>579</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>9.1128377999999994</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
         <v>581</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>8.9872498000000007</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>583</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>9.3697391999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
         <v>584</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>9.2193290000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>585</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>9.4962440000000008</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
         <v>587</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>9.0445989000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
         <v>588</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>9.1623339999999995</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
         <v>590</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>9.4400493999999995</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
         <v>592</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>9.7164370000000009</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
         <v>594</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>9.1673422999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>596</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>8.8904929999999993</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>598</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>8.6562561999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>599</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>9.6922379999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
         <v>600</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>9.1020339999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>602</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>9.4965410000000006</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
         <v>604</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>9.5776838000000009</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>606</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>9.1181330000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
         <v>608</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>9.1473340000000007</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>610</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>9.1731440000000006</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
         <v>612</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>9.6773369999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>614</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>9.6591550999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
         <v>616</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>9.6405028000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
         <v>618</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>9.4990450000000006</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
         <v>619</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>9.5080494000000009</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>621</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>9.3947865000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
         <v>623</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>9.5072720999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>625</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>8.8180270000000007</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
         <v>627</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>8.8565269999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>629</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>8.8620319999999992</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>631</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>8.8156320000000008</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>633</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>8.8630765</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
         <v>635</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>8.5817533000000008</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>636</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>8.9115289999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
         <v>638</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>8.9182330000000007</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>640</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>8.9464330000000007</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
         <v>642</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>8.8974340000000005</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>644</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>8.5557841000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>646</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>8.8753340000000005</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>648</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>8.6719249999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>650</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>8.9364290000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>652</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>8.6571239999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
         <v>653</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>8.8710280000000008</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>655</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>8.4986122999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
         <v>657</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>8.8967290000000006</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>659</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>8.5320543000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>661</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>8.5674048999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>663</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>8.8306319999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>665</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>8.5402190000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>666</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>8.8098279999999995</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
         <v>668</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>8.8349270000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>670</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>8.8355078999999996</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="7" t="s">
         <v>672</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>8.8723284000000007</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>674</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>8.8338449000000008</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
         <v>676</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>9.0504350000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>678</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>8.5227190000000004</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
         <v>680</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>8.6372280000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
         <v>681</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>8.7827237</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
         <v>683</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>8.6370240000000003</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>685</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>8.5291794999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
         <v>687</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>8.8579311999999994</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>688</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>8.7770878999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
         <v>690</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>8.4996170000000006</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>692</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>8.7701309999999992</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>694</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>8.5751691000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>696</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>8.9467300000000005</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
         <v>698</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>8.8320270000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
         <v>700</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>8.9535079999999994</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
         <v>702</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>8.5401647000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>704</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>8.9738340000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
         <v>706</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>8.7342270000000006</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
         <v>708</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>8.5916111999999991</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
         <v>709</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>8.6431269999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
         <v>711</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>8.8023310000000006</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="7" t="s">
         <v>713</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>8.7639365999999992</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>715</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>8.7954319999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
         <v>717</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>8.5386731999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>719</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>8.8976310000000005</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
         <v>720</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>8.5775199999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
         <v>722</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>8.9405319999999993</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
         <v>724</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>8.6468751000000008</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>725</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>8.5982240000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
         <v>726</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>8.6099732000000007</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>727</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>8.6510379999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
         <v>728</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>8.5840920000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
         <v>729</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>8.9191225000000003</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
         <v>731</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>8.6157229999999991</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>732</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>8.9400329999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
         <v>734</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>8.5557200000000009</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>735</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>8.6360250000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
         <v>737</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>8.7610279999999996</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>739</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>8.7621280000000006</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
         <v>740</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>8.8267319999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>741</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>8.6342590000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="7" t="s">
         <v>743</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>8.9043340000000004</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>745</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>8.774832</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
         <v>747</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>8.8784279999999995</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>749</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>8.6715260000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
         <v>751</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>8.9330289999999994</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>753</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>8.5494190000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
         <v>755</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>8.8837442000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>757</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>8.6361252999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
         <v>758</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>8.5482203999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>760</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>8.6495365999999994</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
         <v>762</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>8.5199602999999993</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>764</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>8.9040289999999995</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
         <v>766</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>8.7000299999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>768</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>8.8507320000000007</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
         <v>770</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>8.9015319999999996</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
         <v>772</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>8.8211309999999994</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
         <v>773</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>8.752027</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
         <v>775</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>8.7774289999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
         <v>777</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>8.5953239999999997</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
         <v>779</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>8.7085547999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
         <v>781</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>9.0652223000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
         <v>782</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>9.1127190000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
         <v>784</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>9.3278289999999995</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
         <v>786</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>8.3151472999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
         <v>788</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>9.0574270000000006</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
         <v>789</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>8.8103189999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
         <v>791</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>9.3876121999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
         <v>793</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>8.8842160000000003</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="7" t="s">
         <v>794</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>8.6973713000000004</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
         <v>796</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>9.1688290000000006</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
         <v>798</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>9.1645240000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
         <v>799</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>8.7299524000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
         <v>800</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>8.7644199999999994</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
         <v>802</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>9.0299928000000005</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>803</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>8.7681210000000007</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>804</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>9.0430579000000009</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
         <v>805</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>8.7435189999999992</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
         <v>807</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>9.0085270000000008</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
         <v>809</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>9.2581290000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
         <v>810</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>9.6994897000000009</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
         <v>812</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>9.0644445000000005</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
         <v>814</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>8.8300160000000005</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
         <v>816</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>8.9953354000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
         <v>818</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>9.1948191000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
         <v>819</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>8.6145150000000008</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
         <v>821</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>8.7183130000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
         <v>823</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>8.7253190000000007</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
         <v>825</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>8.8186180000000007</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
         <v>826</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>8.6798160000000006</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
         <v>827</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>8.7150163999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
         <v>829</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>8.9422189999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
         <v>830</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>8.9897133</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
         <v>832</v>
       </c>
@@ -19978,7 +19978,7 @@
         <v>8.6651159999999994</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
         <v>833</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>8.7522210000000005</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
         <v>835</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>9.6145300000000002</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
         <v>837</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>9.0010270000000006</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
         <v>839</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>8.9023219999999998</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>841</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>8.5683533999999995</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
         <v>842</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>9.4066597999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
         <v>844</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>8.8354169999999996</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
         <v>846</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>9.5411236699450619</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
         <v>848</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>9.2040900000000008</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
         <v>849</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>9.1754470999999995</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
         <v>850</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>8.6388189999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
         <v>852</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>8.8081169999999993</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
         <v>853</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>8.5602990999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
         <v>855</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>9.3255269999999992</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>857</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>8.8312209999999993</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
         <v>858</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>8.6173149999999996</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
         <v>860</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>9.0214630000000007</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="7" t="s">
         <v>861</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>9.1898289999999996</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>862</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>8.7437159999999992</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>863</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>9.5027442000000004</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="7" t="s">
         <v>864</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>8.3802099999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="7" t="s">
         <v>866</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>9.1010240000000007</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="7" t="s">
         <v>867</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>8.6711150000000004</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
         <v>869</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>8.5917139999999996</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>871</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>9.0010431000000004</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="7" t="s">
         <v>872</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>8.6299189999999992</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="7" t="s">
         <v>874</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>9.520232</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="7" t="s">
         <v>875</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>9.3820423999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="7" t="s">
         <v>876</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>9.1129259999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="7" t="s">
         <v>877</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>8.8828180000000003</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="7" t="s">
         <v>879</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>8.7418169999999993</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="7" t="s">
         <v>880</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>8.4031462000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="7" t="s">
         <v>881</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>8.6602189999999997</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="7" t="s">
         <v>882</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>8.4611129999999992</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="7" t="s">
         <v>883</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>8.5874170000000003</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="7" t="s">
         <v>885</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>9.6739230999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="7" t="s">
         <v>887</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>8.8686159999999994</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="7" t="s">
         <v>889</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>9.1885180000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="7" t="s">
         <v>891</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>9.3010409999999997</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="7" t="s">
         <v>893</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>8.5610073999999994</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="7" t="s">
         <v>894</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>8.8157160000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="7" t="s">
         <v>895</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>8.5916589000000005</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="7" t="s">
         <v>896</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>8.7272730000000003</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="7" t="s">
         <v>898</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>8.5778500999999991</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>900</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>8.2255029999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="7" t="s">
         <v>902</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>9.3528269999999996</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="7" t="s">
         <v>903</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>9.1035158999999997</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="7" t="s">
         <v>904</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>8.7167139999999996</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
         <v>905</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>8.7164190000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="7" t="s">
         <v>907</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>8.5631129999999995</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="7" t="s">
         <v>909</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>8.7653199999999991</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="7" t="s">
         <v>911</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>8.915616</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="7" t="s">
         <v>913</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>8.9839210000000005</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" s="7" t="s">
         <v>914</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>8.4854120000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="7" t="s">
         <v>915</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>8.5405130000000007</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="7" t="s">
         <v>917</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>8.8245836999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="7" t="s">
         <v>919</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>8.8943625999999991</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="7" t="s">
         <v>920</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>8.4708073000000006</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" s="7" t="s">
         <v>922</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>8.5978309999999993</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="7" t="s">
         <v>924</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>9.3818459999999995</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="7" t="s">
         <v>926</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>9.3615449999999996</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" s="7" t="s">
         <v>928</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>9.1012725999999997</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" s="7" t="s">
         <v>929</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>9.0027360000000005</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="7" t="s">
         <v>931</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>8.4016289999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="7" t="s">
         <v>933</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>9.3595480000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="7" t="s">
         <v>935</v>
       </c>
@@ -21628,7 +21628,7 @@
         <v>8.3682645000000004</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" s="7" t="s">
         <v>937</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>8.5278340000000004</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" s="7" t="s">
         <v>938</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>8.3026639000000007</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" s="7" t="s">
         <v>940</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>9.5010163999999993</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" s="7" t="s">
         <v>941</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>8.8398749999999993</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" s="7" t="s">
         <v>943</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>8.9152400000000007</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" s="7" t="s">
         <v>944</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>9.1786440000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" s="7" t="s">
         <v>946</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>8.8635439999999992</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" s="7" t="s">
         <v>948</v>
       </c>
@@ -21828,7 +21828,7 @@
         <v>8.6487339999999993</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" s="7" t="s">
         <v>949</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>9.1271532000000004</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441" s="7" t="s">
         <v>950</v>
       </c>
@@ -21878,7 +21878,7 @@
         <v>9.3571439999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442" s="7" t="s">
         <v>951</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>9.1215390000000003</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443" s="7" t="s">
         <v>953</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>9.2847410000000004</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444" s="7" t="s">
         <v>955</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>8.4979300000000002</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445" s="7" t="s">
         <v>957</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>8.9447390000000002</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446" s="7" t="s">
         <v>958</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>9.0080349999999996</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" s="7" t="s">
         <v>960</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>8.9233340000000005</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" s="7" t="s">
         <v>962</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>9.1004380000000005</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="7" t="s">
         <v>964</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>9.1064571999999995</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" s="7" t="s">
         <v>965</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>9.0240039774230851</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" s="7" t="s">
         <v>967</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>8.6356380000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" s="7" t="s">
         <v>968</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>9.2858792000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" s="7" t="s">
         <v>969</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>8.4717403999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" s="7" t="s">
         <v>970</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>8.6623978000000008</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" s="7" t="s">
         <v>971</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>9.0740390000000009</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="7" t="s">
         <v>973</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>9.045439</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" s="7" t="s">
         <v>974</v>
       </c>
@@ -22278,7 +22278,7 @@
         <v>8.6331310000000006</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="7" t="s">
         <v>975</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>8.5341108999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" s="7" t="s">
         <v>976</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>9.1085902999999995</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" s="7" t="s">
         <v>978</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>8.9849359999999994</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" s="7" t="s">
         <v>980</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>8.8993350000000007</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" s="7" t="s">
         <v>982</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>9.1297852000000006</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" s="7" t="s">
         <v>983</v>
       </c>
@@ -22428,7 +22428,7 @@
         <v>8.6305978000000003</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" s="7" t="s">
         <v>984</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>9.0448409999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="7" t="s">
         <v>985</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>9.5735510000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="7" t="s">
         <v>987</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>8.6674064000000008</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" s="7" t="s">
         <v>989</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>8.6747137999999993</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" s="7" t="s">
         <v>991</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>9.0381359999999997</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="7" t="s">
         <v>993</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>9.0807365999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" s="7" t="s">
         <v>995</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>9.0147399999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471" s="7" t="s">
         <v>996</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>9.2298410000000004</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" s="7" t="s">
         <v>997</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>8.7381390000000003</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473" s="7" t="s">
         <v>999</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>9.2503410000000006</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="7" t="s">
         <v>1001</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>9.0835261999999997</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="7" t="s">
         <v>1003</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>8.7209530999999991</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="7" t="s">
         <v>1004</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>8.9220349999999993</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477" s="7" t="s">
         <v>1005</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>8.6114359999999994</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="7" t="s">
         <v>1007</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>9.0655400000000004</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" s="7" t="s">
         <v>1009</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>8.6659380000000006</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" s="7" t="s">
         <v>1010</v>
       </c>
@@ -22853,7 +22853,7 @@
         <v>8.3809310000000004</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481" s="7" t="s">
         <v>1011</v>
       </c>
@@ -22878,7 +22878,7 @@
         <v>9.2719400000000007</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" s="7" t="s">
         <v>1013</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>8.9076369999999994</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" s="7" t="s">
         <v>1014</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>9.0346399999999996</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" s="7" t="s">
         <v>1016</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>9.1982420000000005</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485" s="7" t="s">
         <v>1018</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>8.7919339999999995</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486" s="7" t="s">
         <v>1019</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>8.5219988999999998</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487" s="7" t="s">
         <v>1020</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>9.3071450000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" s="7" t="s">
         <v>1022</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>9.0067409999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489" s="7" t="s">
         <v>1024</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>9.5407510000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490" s="7" t="s">
         <v>1026</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>8.8986359999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491" s="7" t="s">
         <v>1027</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>8.7164389999999994</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492" s="7" t="s">
         <v>1029</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>9.1702543999999993</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" s="7" t="s">
         <v>1031</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>8.6463389999999993</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" s="7" t="s">
         <v>1032</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>8.4562962000000006</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495" s="7" t="s">
         <v>1033</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>8.8206340000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" s="7" t="s">
         <v>1034</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>8.9816380000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="7" t="s">
         <v>1036</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>9.1041399999999992</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" s="7" t="s">
         <v>1038</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>9.1301410000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499" s="7" t="s">
         <v>1040</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>9.158944</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500" s="7" t="s">
         <v>1041</v>
       </c>
@@ -23353,7 +23353,7 @@
         <v>8.9231379999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501" s="7" t="s">
         <v>1042</v>
       </c>
@@ -23378,7 +23378,7 @@
         <v>8.9752276000000002</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502" s="7" t="s">
         <v>1043</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>9.1441389999999991</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503" s="7" t="s">
         <v>1044</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>8.939235</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A504" s="7" t="s">
         <v>1046</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>9.3212294999999994</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A505" s="7" t="s">
         <v>1048</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>9.2357358000000005</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506" s="7" t="s">
         <v>1050</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>8.8883714000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A507" s="7" t="s">
         <v>1052</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>8.808738</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A508" s="7" t="s">
         <v>1054</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>9.2935449999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A509" s="7" t="s">
         <v>1055</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>9.1890409999999996</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510" s="7" t="s">
         <v>1056</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>9.1817083000000004</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A511" s="7" t="s">
         <v>1058</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>9.1321410000000007</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A512" s="7" t="s">
         <v>1059</v>
       </c>
@@ -23653,7 +23653,7 @@
         <v>8.7722420000000003</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513" s="7" t="s">
         <v>1060</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>8.5789603999999997</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514" s="7" t="s">
         <v>1061</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>8.9603418000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515" s="7" t="s">
         <v>1063</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>8.9165340000000004</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516" s="7" t="s">
         <v>1065</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>9.0732420000000005</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517" s="7" t="s">
         <v>1067</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>8.9076339999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518" s="7" t="s">
         <v>1069</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>8.7963369999999994</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519" s="7" t="s">
         <v>1071</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>8.7367218999999992</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520" s="7" t="s">
         <v>1072</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>8.9588370000000008</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521" s="7" t="s">
         <v>1074</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>8.6404753999999997</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522" s="7" t="s">
         <v>1076</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>8.8690350000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523" s="7" t="s">
         <v>1077</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>9.0013979000000006</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524" s="7" t="s">
         <v>1079</v>
       </c>
@@ -23953,7 +23953,7 @@
         <v>9.2127289999999995</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525" s="7" t="s">
         <v>1081</v>
       </c>
@@ -23978,7 +23978,7 @@
         <v>8.6700379999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526" s="7" t="s">
         <v>1082</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>9.5739509999999992</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527" s="7" t="s">
         <v>1084</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>9.3930469999999993</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528" s="7" t="s">
         <v>1086</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>9.5208539999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529" s="7" t="s">
         <v>1088</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>8.9428389999999993</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530" s="7" t="s">
         <v>1090</v>
       </c>
@@ -24112,20 +24112,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70527D26-2D02-4D29-9365-4DC70CD95343}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1094</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10186</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>8.6502999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10187</v>
       </c>
@@ -24179,13 +24179,13 @@
         <v>220</v>
       </c>
       <c r="E3">
-        <v>41.433700000000002</v>
+        <v>41.606099999999998</v>
       </c>
       <c r="F3">
-        <v>13.042400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.998200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10188</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>10.887</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10189</v>
       </c>
@@ -24235,19 +24235,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1103</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1000001</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>1145</v>
       </c>
       <c r="D2">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="E2">
         <v>10187</v>
@@ -24287,7 +24287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1000002</v>
       </c>
@@ -24307,7 +24307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000003</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1000004</v>
       </c>
@@ -24360,14 +24360,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1108</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24426,7 +24426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24454,7 +24454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24510,7 +24510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -24552,7 +24552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24594,7 +24594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24618,17 +24618,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1108</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24686,12 +24686,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1118</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6125</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6126</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6126</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6129</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6129</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6130</v>
       </c>
@@ -24810,7 +24810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6130</v>
       </c>
@@ -24827,7 +24827,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6133</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6134</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6125</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -24890,7 +24890,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -24902,7 +24902,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -24914,7 +24914,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -24926,7 +24926,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -24937,7 +24937,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -24949,7 +24949,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -24961,7 +24961,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -24973,7 +24973,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -24985,7 +24985,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -24997,7 +24997,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -25009,7 +25009,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -25021,7 +25021,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -25033,7 +25033,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -25055,20 +25055,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD961E3-D236-4F86-859D-0579C77D8BC7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1112</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>25.248000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>25.248000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>25.248000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25200,15 +25200,15 @@
       <selection activeCell="A2" sqref="A2:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1092</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>39.2432625</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
@@ -25297,7 +25297,7 @@
         <v>40.8506</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>175</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>39.291538000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>178</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>39.067233999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>184</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>40.06160405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>186</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>40.06160405</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>175</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>39.291538000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>207</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>40.723264299999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>229</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>40.2334988</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>239</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>39.207031000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>241</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>39.424039999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>336</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>40.578063999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>39.207031000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>468</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>39.216952499999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -25656,7 +25656,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -25667,7 +25667,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -25678,7 +25678,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -25689,7 +25689,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -25700,7 +25700,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -25711,7 +25711,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -25722,7 +25722,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -25733,7 +25733,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -25744,7 +25744,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -25755,7 +25755,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -25766,7 +25766,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -25777,7 +25777,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -25788,7 +25788,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -25799,7 +25799,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -25810,7 +25810,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -25821,7 +25821,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -25832,7 +25832,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -25843,7 +25843,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -25854,7 +25854,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -25865,7 +25865,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -25876,7 +25876,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -25887,7 +25887,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -25898,7 +25898,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -25909,7 +25909,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -25920,7 +25920,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -25931,7 +25931,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -25942,7 +25942,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -25953,7 +25953,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -25964,7 +25964,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -25989,15 +25989,15 @@
       <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
@@ -26026,7 +26026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1092</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>39.2432625</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>40.8506</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>175</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>39.291538000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>178</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>39.067233999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>184</v>
       </c>
@@ -26178,7 +26178,7 @@
         <v>40.06160405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>186</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>40.06160405</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>175</v>
       </c>
@@ -26238,7 +26238,7 @@
         <v>39.291538000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>207</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>40.723264299999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>229</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>40.2334988</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>239</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>39.207031000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>241</v>
       </c>
@@ -26350,7 +26350,7 @@
         <v>39.424039999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>336</v>
       </c>
@@ -26378,7 +26378,7 @@
         <v>40.578063999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>39.207031000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>468</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>39.216952499999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -26445,7 +26445,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -26456,7 +26456,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -26467,7 +26467,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -26478,7 +26478,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -26489,7 +26489,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -26500,7 +26500,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -26511,7 +26511,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -26522,7 +26522,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -26533,7 +26533,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -26544,7 +26544,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -26555,7 +26555,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -26566,7 +26566,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -26577,7 +26577,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -26588,7 +26588,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -26599,7 +26599,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -26610,7 +26610,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -26621,7 +26621,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -26632,7 +26632,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -26643,7 +26643,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -26654,7 +26654,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -26665,7 +26665,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -26676,7 +26676,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -26687,7 +26687,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -26698,7 +26698,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -26709,7 +26709,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -26720,7 +26720,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -26731,7 +26731,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -26742,7 +26742,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -26753,7 +26753,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
